--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.14.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.14.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1633,7 +1633,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2431,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
